--- a/Code/Results/Cases/Case_4_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.12537429753504</v>
+        <v>22.70682288476674</v>
       </c>
       <c r="C2">
-        <v>14.0295860428577</v>
+        <v>14.78532723153985</v>
       </c>
       <c r="D2">
-        <v>12.08052562679854</v>
+        <v>15.50347304566591</v>
       </c>
       <c r="E2">
-        <v>13.07774538173359</v>
+        <v>16.97685345109991</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.157146088041856</v>
+        <v>3.816270500864024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.968448755063492</v>
+        <v>9.74281218610728</v>
       </c>
       <c r="K2">
-        <v>19.18335856953611</v>
+        <v>22.29088125580993</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.73793213070526</v>
+        <v>28.12527494638073</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.00724804525202</v>
+        <v>22.52684840088804</v>
       </c>
       <c r="C3">
-        <v>13.26178956630041</v>
+        <v>14.66039015836829</v>
       </c>
       <c r="D3">
-        <v>11.59917012049681</v>
+        <v>15.46400319587076</v>
       </c>
       <c r="E3">
-        <v>12.56820749755241</v>
+        <v>16.93919609860501</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.170734320517076</v>
+        <v>3.820759058267098</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.900162036508589</v>
+        <v>9.75865183894085</v>
       </c>
       <c r="K3">
-        <v>18.26624615239101</v>
+        <v>22.17230964206807</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.41899336588254</v>
+        <v>28.03750749653893</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.31181128398599</v>
+        <v>22.42209685708278</v>
       </c>
       <c r="C4">
-        <v>12.78449181979455</v>
+        <v>14.58754482269734</v>
       </c>
       <c r="D4">
-        <v>11.30618913916292</v>
+        <v>15.44346067881335</v>
       </c>
       <c r="E4">
-        <v>12.2588445523573</v>
+        <v>16.92013051928552</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.179221042101115</v>
+        <v>3.823653817088399</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.862267236324644</v>
+        <v>9.769951028963579</v>
       </c>
       <c r="K4">
-        <v>17.70049532981947</v>
+        <v>22.10511511426319</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.22753894757308</v>
+        <v>27.98449205057129</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.02639051264206</v>
+        <v>22.38089347738615</v>
       </c>
       <c r="C5">
-        <v>12.58863676099304</v>
+        <v>14.55885786120779</v>
       </c>
       <c r="D5">
-        <v>11.18751895607334</v>
+        <v>15.43602123218296</v>
       </c>
       <c r="E5">
-        <v>12.13372721586379</v>
+        <v>16.91338378643199</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.182720029824123</v>
+        <v>3.82486849804746</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.847800070445455</v>
+        <v>9.774950719251699</v>
       </c>
       <c r="K5">
-        <v>17.46946103257813</v>
+        <v>22.07916158309947</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.15056727272378</v>
+        <v>27.96311165059067</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.97888203154818</v>
+        <v>22.37414232239453</v>
       </c>
       <c r="C6">
-        <v>12.55603813605259</v>
+        <v>14.55415540966749</v>
       </c>
       <c r="D6">
-        <v>11.16786004630071</v>
+        <v>15.43484227618651</v>
       </c>
       <c r="E6">
-        <v>12.1130114780705</v>
+        <v>16.91232532124679</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.183303608470292</v>
+        <v>3.825072315796515</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.845455605156573</v>
+        <v>9.775804766042597</v>
       </c>
       <c r="K6">
-        <v>17.43107483446371</v>
+        <v>22.07493880689474</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.13784803025742</v>
+        <v>27.95957508224022</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.30796985982624</v>
+        <v>22.42153511968245</v>
       </c>
       <c r="C7">
-        <v>12.78185572367313</v>
+        <v>14.58715386641713</v>
       </c>
       <c r="D7">
-        <v>11.30458567444484</v>
+        <v>15.44335657123673</v>
       </c>
       <c r="E7">
-        <v>12.2571532174937</v>
+        <v>16.92003538697944</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.179268060728632</v>
+        <v>3.823670056612569</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.862068228458584</v>
+        <v>9.770016857165933</v>
       </c>
       <c r="K7">
-        <v>17.69738121476611</v>
+        <v>22.10475928812044</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.22649670424907</v>
+        <v>27.98420279563961</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74179685556324</v>
+        <v>22.64359659862932</v>
       </c>
       <c r="C8">
-        <v>13.76612448242307</v>
+        <v>14.74146255626178</v>
       </c>
       <c r="D8">
-        <v>11.91405812806015</v>
+        <v>15.48909984377272</v>
       </c>
       <c r="E8">
-        <v>12.90136711928045</v>
+        <v>16.96302922852865</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.16180437702296</v>
+        <v>3.817789444604478</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.944042231921818</v>
+        <v>9.747946806259309</v>
       </c>
       <c r="K8">
-        <v>18.86777515031924</v>
+        <v>22.24884532512838</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.62702008433366</v>
+        <v>28.09483377468077</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.47762391468986</v>
+        <v>23.12295129832806</v>
       </c>
       <c r="C9">
-        <v>15.64729728620452</v>
+        <v>15.07350997442118</v>
       </c>
       <c r="D9">
-        <v>13.12771227603821</v>
+        <v>15.60790916980966</v>
       </c>
       <c r="E9">
-        <v>14.19065735742112</v>
+        <v>17.07936536099709</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.128467514638544</v>
+        <v>3.807351812542215</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.138689908726113</v>
+        <v>9.717175208212407</v>
       </c>
       <c r="K9">
-        <v>21.13733767101055</v>
+        <v>22.5749933413227</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.44999078125983</v>
+        <v>28.31853656661453</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.44057189569251</v>
+        <v>23.49936505607221</v>
       </c>
       <c r="C10">
-        <v>17.00086463877144</v>
+        <v>15.33364993664432</v>
       </c>
       <c r="D10">
-        <v>14.03049935030584</v>
+        <v>15.71263323333472</v>
       </c>
       <c r="E10">
-        <v>15.15399209840551</v>
+        <v>17.18409005223452</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.10416146095523</v>
+        <v>3.80034079753766</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.305301045037578</v>
+        <v>9.702221371148873</v>
       </c>
       <c r="K10">
-        <v>22.78809789235488</v>
+        <v>22.83983761912221</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.08236927318765</v>
+        <v>28.48676391459312</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.32504622901591</v>
+        <v>23.67528699854266</v>
       </c>
       <c r="C11">
-        <v>17.61209692179743</v>
+        <v>15.45510325295286</v>
       </c>
       <c r="D11">
-        <v>14.44439969914262</v>
+        <v>15.76397594706408</v>
       </c>
       <c r="E11">
-        <v>15.59666277022259</v>
+        <v>17.23583509790392</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.093045673008446</v>
+        <v>3.797292027253155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.386994668899572</v>
+        <v>9.697085820588114</v>
       </c>
       <c r="K11">
-        <v>23.53680148959213</v>
+        <v>22.9654718044922</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.37748374034453</v>
+        <v>28.56407919756564</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.65902558991803</v>
+        <v>23.74252738120184</v>
       </c>
       <c r="C12">
-        <v>17.84314068808293</v>
+        <v>15.50150672747201</v>
       </c>
       <c r="D12">
-        <v>14.60172452457834</v>
+        <v>15.78394199056003</v>
       </c>
       <c r="E12">
-        <v>15.76507615753633</v>
+        <v>17.25601182678704</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.088818036423623</v>
+        <v>3.796157592954246</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.418855944249649</v>
+        <v>9.695381165587994</v>
       </c>
       <c r="K12">
-        <v>23.82022218962612</v>
+        <v>23.01375740043413</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.49045434450999</v>
+        <v>28.59346434702127</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.58713402836539</v>
+        <v>23.72801910823867</v>
       </c>
       <c r="C13">
-        <v>17.79339519877559</v>
+        <v>15.49149517838976</v>
       </c>
       <c r="D13">
-        <v>14.56781293467377</v>
+        <v>15.77961880507787</v>
       </c>
       <c r="E13">
-        <v>15.72876748722797</v>
+        <v>17.25164066451581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.089729524239071</v>
+        <v>3.796401023430088</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.411951499621305</v>
+        <v>9.695737611525033</v>
       </c>
       <c r="K13">
-        <v>23.75918213404825</v>
+        <v>23.00332712955278</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.46606728048334</v>
+        <v>28.58713104079091</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.3525400565005</v>
+        <v>23.68080672843816</v>
       </c>
       <c r="C14">
-        <v>17.63111174862938</v>
+        <v>15.45891285195097</v>
       </c>
       <c r="D14">
-        <v>14.45733015410714</v>
+        <v>15.76560812392954</v>
       </c>
       <c r="E14">
-        <v>15.6105014826885</v>
+        <v>17.23748343617926</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.09269829271775</v>
+        <v>3.797198295285866</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.389596871697592</v>
+        <v>9.696940764493721</v>
       </c>
       <c r="K14">
-        <v>23.56011898288028</v>
+        <v>22.96943022744369</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.38675254898744</v>
+        <v>28.56649461018467</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.20873036154233</v>
+        <v>23.65196730407672</v>
       </c>
       <c r="C15">
-        <v>17.53166252651693</v>
+        <v>15.43900777412083</v>
       </c>
       <c r="D15">
-        <v>14.38973781466447</v>
+        <v>15.75709409799788</v>
       </c>
       <c r="E15">
-        <v>15.53816755290635</v>
+        <v>17.22888725667905</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.09451404055746</v>
+        <v>3.797689256548967</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.376027091689659</v>
+        <v>9.697709003635859</v>
       </c>
       <c r="K15">
-        <v>23.43818278065458</v>
+        <v>22.94875901094924</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.3383334056147</v>
+        <v>28.55386802957985</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.38261914338479</v>
+        <v>23.48795810595022</v>
       </c>
       <c r="C16">
-        <v>16.96084633441674</v>
+        <v>15.32577227553065</v>
       </c>
       <c r="D16">
-        <v>14.00352431802919</v>
+        <v>15.7093516474124</v>
       </c>
       <c r="E16">
-        <v>15.12516291467187</v>
+        <v>17.18079030865715</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.104885913475844</v>
+        <v>3.800542858123086</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.300087206812957</v>
+        <v>9.702590567464489</v>
       </c>
       <c r="K16">
-        <v>22.73914030269935</v>
+        <v>22.83172827752752</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.06324446230373</v>
+        <v>28.48172654467838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.87381078557356</v>
+        <v>23.38850837477922</v>
       </c>
       <c r="C17">
-        <v>16.60965279211215</v>
+        <v>15.25707817136103</v>
       </c>
       <c r="D17">
-        <v>13.76749195817464</v>
+        <v>15.68100565683901</v>
       </c>
       <c r="E17">
-        <v>14.87302005302712</v>
+        <v>17.15233020460516</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.111227132538251</v>
+        <v>3.802329351293044</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.255062747252616</v>
+        <v>9.70601248050165</v>
       </c>
       <c r="K17">
-        <v>22.30985679673434</v>
+        <v>22.7612327322256</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.89648747695846</v>
+        <v>28.4376678318511</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.58033704734268</v>
+        <v>23.3317520922778</v>
       </c>
       <c r="C18">
-        <v>16.40721215753642</v>
+        <v>15.21786249070168</v>
       </c>
       <c r="D18">
-        <v>13.63202449977807</v>
+        <v>15.66505094093848</v>
       </c>
       <c r="E18">
-        <v>14.72840041034287</v>
+        <v>17.13634766861273</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.11486957391368</v>
+        <v>3.80337013526571</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.229716022928111</v>
+        <v>9.708137565196351</v>
       </c>
       <c r="K18">
-        <v>22.06271476003253</v>
+        <v>22.72117272256357</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.80126332124059</v>
+        <v>28.41240093738706</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.48082455727335</v>
+        <v>23.31261330520515</v>
       </c>
       <c r="C19">
-        <v>16.33858734552001</v>
+        <v>15.20463655000051</v>
       </c>
       <c r="D19">
-        <v>13.58620475309251</v>
+        <v>15.65970917048168</v>
       </c>
       <c r="E19">
-        <v>14.67950105117672</v>
+        <v>17.131002956842</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.116102281749317</v>
+        <v>3.803724805318738</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.221226413573329</v>
+        <v>9.708884016919017</v>
       </c>
       <c r="K19">
-        <v>21.97899204613356</v>
+        <v>22.70769367277171</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.769136595079</v>
+        <v>28.40385897037399</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.92805764605008</v>
+        <v>23.39904932850778</v>
       </c>
       <c r="C20">
-        <v>16.64708241569376</v>
+        <v>15.26436046759992</v>
       </c>
       <c r="D20">
-        <v>13.79258703250582</v>
+        <v>15.68398706183376</v>
       </c>
       <c r="E20">
-        <v>14.89981819444877</v>
+        <v>17.1553198395463</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.110552668216576</v>
+        <v>3.802137806776133</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.259798223700566</v>
+        <v>9.705631971704619</v>
       </c>
       <c r="K20">
-        <v>22.35557720101505</v>
+        <v>22.76868690135762</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.91416665957536</v>
+        <v>28.44235028638279</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.42146913617454</v>
+        <v>23.69465767038204</v>
       </c>
       <c r="C21">
-        <v>17.67878736625418</v>
+        <v>15.46847218747421</v>
       </c>
       <c r="D21">
-        <v>14.48976431958165</v>
+        <v>15.76970926291414</v>
       </c>
       <c r="E21">
-        <v>15.64521634150657</v>
+        <v>17.24162603269555</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.091826877977556</v>
+        <v>3.79696357371482</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.396137161114337</v>
+        <v>9.696580851445464</v>
       </c>
       <c r="K21">
-        <v>23.61858900204451</v>
+        <v>22.97936753343641</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.41001484262389</v>
+        <v>28.57255315869075</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.39215906443804</v>
+        <v>23.89145891201392</v>
       </c>
       <c r="C22">
-        <v>18.35080879492256</v>
+        <v>15.60425377888233</v>
       </c>
       <c r="D22">
-        <v>14.94894985745185</v>
+        <v>15.82878135833665</v>
       </c>
       <c r="E22">
-        <v>16.13705937498566</v>
+        <v>17.30141999798415</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.07947577643714</v>
+        <v>3.793698822277772</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.490684759994678</v>
+        <v>9.692064836119643</v>
       </c>
       <c r="K22">
-        <v>24.44365344974656</v>
+        <v>23.12118659790806</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.74126791476915</v>
+        <v>28.65827221015078</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.87445388949639</v>
+        <v>23.78610996142186</v>
       </c>
       <c r="C23">
-        <v>17.99224539057634</v>
+        <v>15.53157864558112</v>
       </c>
       <c r="D23">
-        <v>14.70349246649435</v>
+        <v>15.79697774100915</v>
       </c>
       <c r="E23">
-        <v>15.87406024995451</v>
+        <v>17.26919982085729</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.086081828317883</v>
+        <v>3.795430632513912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.439695631159467</v>
+        <v>9.694346970414342</v>
       </c>
       <c r="K23">
-        <v>24.00323530133049</v>
+        <v>23.0451279415916</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.5637568501857</v>
+        <v>28.61246720422449</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.90353562761987</v>
+        <v>23.39428245527884</v>
       </c>
       <c r="C24">
-        <v>16.63016216496588</v>
+        <v>15.26106727446794</v>
       </c>
       <c r="D24">
-        <v>13.78124083958816</v>
+        <v>15.6826381034324</v>
       </c>
       <c r="E24">
-        <v>14.88770170362882</v>
+        <v>17.15396704273304</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.11085760281574</v>
+        <v>3.80222436135266</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.257655643301617</v>
+        <v>9.705803508305108</v>
       </c>
       <c r="K24">
-        <v>22.33490808466522</v>
+        <v>22.7653154089205</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.90617189766248</v>
+        <v>28.44023315187917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.74603834444691</v>
+        <v>22.98882623147512</v>
       </c>
       <c r="C25">
-        <v>15.14372992308381</v>
+        <v>14.98070616515306</v>
       </c>
       <c r="D25">
-        <v>12.7975550147543</v>
+        <v>15.5726802760198</v>
       </c>
       <c r="E25">
-        <v>13.83920161519859</v>
+        <v>17.0444889528632</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.137423577153616</v>
+        <v>3.810059312501354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.082120474736877</v>
+        <v>9.72415751159008</v>
       </c>
       <c r="K25">
-        <v>20.52647850722261</v>
+        <v>22.48222645846734</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.22288883684604</v>
+        <v>28.25732014719682</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.70682288476674</v>
+        <v>21.12537429753504</v>
       </c>
       <c r="C2">
-        <v>14.78532723153985</v>
+        <v>14.02958604285774</v>
       </c>
       <c r="D2">
-        <v>15.50347304566591</v>
+        <v>12.08052562679858</v>
       </c>
       <c r="E2">
-        <v>16.97685345109991</v>
+        <v>13.07774538173356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.816270500864024</v>
+        <v>2.157146088041842</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.74281218610728</v>
+        <v>5.968448755063444</v>
       </c>
       <c r="K2">
-        <v>22.29088125580993</v>
+        <v>19.18335856953613</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>28.12527494638073</v>
+        <v>22.73793213070534</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.52684840088804</v>
+        <v>20.00724804525201</v>
       </c>
       <c r="C3">
-        <v>14.66039015836829</v>
+        <v>13.26178956630044</v>
       </c>
       <c r="D3">
-        <v>15.46400319587076</v>
+        <v>11.59917012049681</v>
       </c>
       <c r="E3">
-        <v>16.93919609860501</v>
+        <v>12.5682074975524</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.820759058267098</v>
+        <v>2.170734320516818</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.75865183894085</v>
+        <v>5.900162036508606</v>
       </c>
       <c r="K3">
-        <v>22.17230964206807</v>
+        <v>18.26624615239098</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>28.03750749653893</v>
+        <v>22.41899336588252</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.42209685708278</v>
+        <v>19.31181128398597</v>
       </c>
       <c r="C4">
-        <v>14.58754482269734</v>
+        <v>12.78449181979451</v>
       </c>
       <c r="D4">
-        <v>15.44346067881335</v>
+        <v>11.30618913916294</v>
       </c>
       <c r="E4">
-        <v>16.92013051928552</v>
+        <v>12.25884455235735</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.823653817088399</v>
+        <v>2.179221042100716</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.769951028963579</v>
+        <v>5.862267236324697</v>
       </c>
       <c r="K4">
-        <v>22.10511511426319</v>
+        <v>17.70049532981943</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>27.98449205057129</v>
+        <v>22.22753894757302</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.38089347738615</v>
+        <v>19.02639051264207</v>
       </c>
       <c r="C5">
-        <v>14.55885786120779</v>
+        <v>12.58863676099312</v>
       </c>
       <c r="D5">
-        <v>15.43602123218296</v>
+        <v>11.18751895607323</v>
       </c>
       <c r="E5">
-        <v>16.91338378643199</v>
+        <v>12.13372721586379</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.82486849804746</v>
+        <v>2.182720029823733</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.774950719251699</v>
+        <v>5.847800070445529</v>
       </c>
       <c r="K5">
-        <v>22.07916158309947</v>
+        <v>17.46946103257815</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>27.96311165059067</v>
+        <v>22.15056727272385</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37414232239453</v>
+        <v>18.97888203154814</v>
       </c>
       <c r="C6">
-        <v>14.55415540966749</v>
+        <v>12.55603813605254</v>
       </c>
       <c r="D6">
-        <v>15.43484227618651</v>
+        <v>11.16786004630077</v>
       </c>
       <c r="E6">
-        <v>16.91232532124679</v>
+        <v>12.11301147807051</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.825072315796515</v>
+        <v>2.183303608470429</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.775804766042597</v>
+        <v>5.845455605156559</v>
       </c>
       <c r="K6">
-        <v>22.07493880689474</v>
+        <v>17.43107483446367</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>27.95957508224022</v>
+        <v>22.13784803025733</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.42153511968245</v>
+        <v>19.30796985982618</v>
       </c>
       <c r="C7">
-        <v>14.58715386641713</v>
+        <v>12.78185572367307</v>
       </c>
       <c r="D7">
-        <v>15.44335657123673</v>
+        <v>11.30458567444483</v>
       </c>
       <c r="E7">
-        <v>16.92003538697944</v>
+        <v>12.25715321749368</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.823670056612569</v>
+        <v>2.179268060728637</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.770016857165933</v>
+        <v>5.862068228458535</v>
       </c>
       <c r="K7">
-        <v>22.10475928812044</v>
+        <v>17.69738121476604</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>27.98420279563961</v>
+        <v>22.22649670424902</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.64359659862932</v>
+        <v>20.74179685556311</v>
       </c>
       <c r="C8">
-        <v>14.74146255626178</v>
+        <v>13.76612448242306</v>
       </c>
       <c r="D8">
-        <v>15.48909984377272</v>
+        <v>11.91405812806014</v>
       </c>
       <c r="E8">
-        <v>16.96302922852865</v>
+        <v>12.90136711928044</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.817789444604478</v>
+        <v>2.161804377022966</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.747946806259309</v>
+        <v>5.944042231921792</v>
       </c>
       <c r="K8">
-        <v>22.24884532512838</v>
+        <v>18.86777515031912</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>28.09483377468077</v>
+        <v>22.6270200843334</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.12295129832806</v>
+        <v>23.47762391468985</v>
       </c>
       <c r="C9">
-        <v>15.07350997442118</v>
+        <v>15.64729728620447</v>
       </c>
       <c r="D9">
-        <v>15.60790916980966</v>
+        <v>13.1277122760382</v>
       </c>
       <c r="E9">
-        <v>17.07936536099709</v>
+        <v>14.19065735742112</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.807351812542215</v>
+        <v>2.128467514638287</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.717175208212407</v>
+        <v>6.138689908726131</v>
       </c>
       <c r="K9">
-        <v>22.5749933413227</v>
+        <v>21.13733767101056</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.31853656661453</v>
+        <v>23.44999078125982</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.49936505607221</v>
+        <v>25.44057189569249</v>
       </c>
       <c r="C10">
-        <v>15.33364993664432</v>
+        <v>17.00086463877147</v>
       </c>
       <c r="D10">
-        <v>15.71263323333472</v>
+        <v>14.03049935030588</v>
       </c>
       <c r="E10">
-        <v>17.18409005223452</v>
+        <v>15.1539920984055</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.80034079753766</v>
+        <v>2.104161460955099</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.702221371148873</v>
+        <v>6.305301045037518</v>
       </c>
       <c r="K10">
-        <v>22.83983761912221</v>
+        <v>22.78809789235488</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>28.48676391459312</v>
+        <v>24.08236927318757</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.67528699854266</v>
+        <v>26.32504622901586</v>
       </c>
       <c r="C11">
-        <v>15.45510325295286</v>
+        <v>17.61209692179748</v>
       </c>
       <c r="D11">
-        <v>15.76397594706408</v>
+        <v>14.4443996991426</v>
       </c>
       <c r="E11">
-        <v>17.23583509790392</v>
+        <v>15.59666277022261</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.797292027253155</v>
+        <v>2.09304567300856</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.697085820588114</v>
+        <v>6.386994668899651</v>
       </c>
       <c r="K11">
-        <v>22.9654718044922</v>
+        <v>23.53680148959211</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>28.56407919756564</v>
+        <v>24.3774837403446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.74252738120184</v>
+        <v>26.65902558991801</v>
       </c>
       <c r="C12">
-        <v>15.50150672747201</v>
+        <v>17.84314068808295</v>
       </c>
       <c r="D12">
-        <v>15.78394199056003</v>
+        <v>14.60172452457828</v>
       </c>
       <c r="E12">
-        <v>17.25601182678704</v>
+        <v>15.76507615753628</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.796157592954246</v>
+        <v>2.088818036423754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.695381165587994</v>
+        <v>6.418855944249634</v>
       </c>
       <c r="K12">
-        <v>23.01375740043413</v>
+        <v>23.8202221896261</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28.59346434702127</v>
+        <v>24.49045434450997</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.72801910823867</v>
+        <v>26.58713402836539</v>
       </c>
       <c r="C13">
-        <v>15.49149517838976</v>
+        <v>17.79339519877558</v>
       </c>
       <c r="D13">
-        <v>15.77961880507787</v>
+        <v>14.5678129346738</v>
       </c>
       <c r="E13">
-        <v>17.25164066451581</v>
+        <v>15.72876748722798</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.796401023430088</v>
+        <v>2.089729524239071</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.695737611525033</v>
+        <v>6.411951499621277</v>
       </c>
       <c r="K13">
-        <v>23.00332712955278</v>
+        <v>23.75918213404824</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>28.58713104079091</v>
+        <v>24.46606728048339</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.68080672843816</v>
+        <v>26.35254005650041</v>
       </c>
       <c r="C14">
-        <v>15.45891285195097</v>
+        <v>17.63111174862925</v>
       </c>
       <c r="D14">
-        <v>15.76560812392954</v>
+        <v>14.45733015410713</v>
       </c>
       <c r="E14">
-        <v>17.23748343617926</v>
+        <v>15.6105014826885</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.797198295285866</v>
+        <v>2.092698292717364</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.696940764493721</v>
+        <v>6.3895968716976</v>
       </c>
       <c r="K14">
-        <v>22.96943022744369</v>
+        <v>23.56011898288021</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>28.56649461018467</v>
+        <v>24.38675254898738</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.65196730407672</v>
+        <v>26.20873036154228</v>
       </c>
       <c r="C15">
-        <v>15.43900777412083</v>
+        <v>17.53166252651691</v>
       </c>
       <c r="D15">
-        <v>15.75709409799788</v>
+        <v>14.38973781466443</v>
       </c>
       <c r="E15">
-        <v>17.22888725667905</v>
+        <v>15.53816755290633</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.797689256548967</v>
+        <v>2.094514040557584</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.697709003635859</v>
+        <v>6.376027091689676</v>
       </c>
       <c r="K15">
-        <v>22.94875901094924</v>
+        <v>23.43818278065454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28.55386802957985</v>
+        <v>24.33833340561472</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.48795810595022</v>
+        <v>25.38261914338488</v>
       </c>
       <c r="C16">
-        <v>15.32577227553065</v>
+        <v>16.96084633441667</v>
       </c>
       <c r="D16">
-        <v>15.7093516474124</v>
+        <v>14.00352431802925</v>
       </c>
       <c r="E16">
-        <v>17.18079030865715</v>
+        <v>15.1251629146719</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.800542858123086</v>
+        <v>2.104885913476124</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.702590567464489</v>
+        <v>6.30008720681297</v>
       </c>
       <c r="K16">
-        <v>22.83172827752752</v>
+        <v>22.73914030269939</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.48172654467838</v>
+        <v>24.06324446230377</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.38850837477922</v>
+        <v>24.87381078557355</v>
       </c>
       <c r="C17">
-        <v>15.25707817136103</v>
+        <v>16.60965279211208</v>
       </c>
       <c r="D17">
-        <v>15.68100565683901</v>
+        <v>13.7674919581747</v>
       </c>
       <c r="E17">
-        <v>17.15233020460516</v>
+        <v>14.87302005302717</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.802329351293044</v>
+        <v>2.111227132538384</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.70601248050165</v>
+        <v>6.255062747252674</v>
       </c>
       <c r="K17">
-        <v>22.7612327322256</v>
+        <v>22.30985679673432</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28.4376678318511</v>
+        <v>23.89648747695845</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.3317520922778</v>
+        <v>24.58033704734268</v>
       </c>
       <c r="C18">
-        <v>15.21786249070168</v>
+        <v>16.40721215753645</v>
       </c>
       <c r="D18">
-        <v>15.66505094093848</v>
+        <v>13.63202449977813</v>
       </c>
       <c r="E18">
-        <v>17.13634766861273</v>
+        <v>14.72840041034292</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.80337013526571</v>
+        <v>2.114869573913815</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.708137565196351</v>
+        <v>6.229716022928134</v>
       </c>
       <c r="K18">
-        <v>22.72117272256357</v>
+        <v>22.06271476003253</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28.41240093738706</v>
+        <v>23.80126332124063</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.31261330520515</v>
+        <v>24.48082455727335</v>
       </c>
       <c r="C19">
-        <v>15.20463655000051</v>
+        <v>16.33858734551995</v>
       </c>
       <c r="D19">
-        <v>15.65970917048168</v>
+        <v>13.58620475309255</v>
       </c>
       <c r="E19">
-        <v>17.131002956842</v>
+        <v>14.67950105117674</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.803724805318738</v>
+        <v>2.116102281749333</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.708884016919017</v>
+        <v>6.221226413573372</v>
       </c>
       <c r="K19">
-        <v>22.70769367277171</v>
+        <v>21.97899204613352</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>28.40385897037399</v>
+        <v>23.76913659507912</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.39904932850778</v>
+        <v>24.92805764605011</v>
       </c>
       <c r="C20">
-        <v>15.26436046759992</v>
+        <v>16.64708241569379</v>
       </c>
       <c r="D20">
-        <v>15.68398706183376</v>
+        <v>13.79258703250582</v>
       </c>
       <c r="E20">
-        <v>17.1553198395463</v>
+        <v>14.89981819444873</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.802137806776133</v>
+        <v>2.110552668216978</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.705631971704619</v>
+        <v>6.259798223700551</v>
       </c>
       <c r="K20">
-        <v>22.76868690135762</v>
+        <v>22.35557720101508</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>28.44235028638279</v>
+        <v>23.91416665957549</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.69465767038204</v>
+        <v>26.42146913617458</v>
       </c>
       <c r="C21">
-        <v>15.46847218747421</v>
+        <v>17.67878736625416</v>
       </c>
       <c r="D21">
-        <v>15.76970926291414</v>
+        <v>14.48976431958164</v>
       </c>
       <c r="E21">
-        <v>17.24162603269555</v>
+        <v>15.64521634150651</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.79696357371482</v>
+        <v>2.091826877977294</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.696580851445464</v>
+        <v>6.396137161114302</v>
       </c>
       <c r="K21">
-        <v>22.97936753343641</v>
+        <v>23.61858900204453</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>28.57255315869075</v>
+        <v>24.41001484262395</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.89145891201392</v>
+        <v>27.39215906443801</v>
       </c>
       <c r="C22">
-        <v>15.60425377888233</v>
+        <v>18.35080879492252</v>
       </c>
       <c r="D22">
-        <v>15.82878135833665</v>
+        <v>14.94894985745187</v>
       </c>
       <c r="E22">
-        <v>17.30141999798415</v>
+        <v>16.13705937498564</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.793698822277772</v>
+        <v>2.079475776437271</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.692064836119643</v>
+        <v>6.490684759994682</v>
       </c>
       <c r="K22">
-        <v>23.12118659790806</v>
+        <v>24.44365344974652</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>28.65827221015078</v>
+        <v>24.74126791476921</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.78610996142186</v>
+        <v>26.87445388949643</v>
       </c>
       <c r="C23">
-        <v>15.53157864558112</v>
+        <v>17.99224539057633</v>
       </c>
       <c r="D23">
-        <v>15.79697774100915</v>
+        <v>14.70349246649436</v>
       </c>
       <c r="E23">
-        <v>17.26919982085729</v>
+        <v>15.87406024995451</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.795430632513912</v>
+        <v>2.086081828317755</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.694346970414342</v>
+        <v>6.439695631159473</v>
       </c>
       <c r="K23">
-        <v>23.0451279415916</v>
+        <v>24.00323530133051</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>28.61246720422449</v>
+        <v>24.5637568501857</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.39428245527884</v>
+        <v>24.90353562761982</v>
       </c>
       <c r="C24">
-        <v>15.26106727446794</v>
+        <v>16.6301621649659</v>
       </c>
       <c r="D24">
-        <v>15.6826381034324</v>
+        <v>13.78124083958813</v>
       </c>
       <c r="E24">
-        <v>17.15396704273304</v>
+        <v>14.88770170362881</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.80222436135266</v>
+        <v>2.11085760281547</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.705803508305108</v>
+        <v>6.257655643301617</v>
       </c>
       <c r="K24">
-        <v>22.7653154089205</v>
+        <v>22.33490808466518</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28.44023315187917</v>
+        <v>23.9061718976625</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.98882623147512</v>
+        <v>22.74603834444689</v>
       </c>
       <c r="C25">
-        <v>14.98070616515306</v>
+        <v>15.14372992308376</v>
       </c>
       <c r="D25">
-        <v>15.5726802760198</v>
+        <v>12.79755501475439</v>
       </c>
       <c r="E25">
-        <v>17.0444889528632</v>
+        <v>13.8392016151986</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.810059312501354</v>
+        <v>2.137423577153616</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.72415751159008</v>
+        <v>6.082120474736833</v>
       </c>
       <c r="K25">
-        <v>22.48222645846734</v>
+        <v>20.52647850722257</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>28.25732014719682</v>
+        <v>23.22288883684602</v>
       </c>
       <c r="O25">
         <v>0</v>
